--- a/app/src/main/assets/dummy_data.xlsx
+++ b/app/src/main/assets/dummy_data.xlsx
@@ -186,7 +186,7 @@
     <t>셀린느 버킷 가방</t>
   </si>
   <si>
-    <t>22년 신세계 대전 구매입니당\n + "셀린느 버킷백\n" + "구매해서 몇번사용했어요\n" + "까짐 스크래치 없습니다.\n" + "타지역에서 보내는거라 택배로 진행합니당!"</t>
+    <t>22년 신세계 대전 구매입니당\n 셀린느 버킷백\n구매해서 몇번사용 했어요\n까짐 스크래치 없습니다.\n타지역에서 보내는거라 택배로 진행합니당!</t>
   </si>
   <si>
     <t>똑태현</t>
@@ -1023,7 +1023,7 @@
       <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E12" s="4" t="s">
